--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.2360503537636</v>
+        <v>274.5100550977719</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.4988214174343</v>
+        <v>375.5967679136854</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.8736707418956</v>
+        <v>339.750339537377</v>
       </c>
       <c r="AD2" t="n">
-        <v>196236.0503537636</v>
+        <v>274510.0550977719</v>
       </c>
       <c r="AE2" t="n">
-        <v>268498.8214174343</v>
+        <v>375596.7679136854</v>
       </c>
       <c r="AF2" t="n">
         <v>1.062788330696734e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>242873.6707418956</v>
+        <v>339750.339537377</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.0358205986896</v>
+        <v>207.6654629942936</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.9173847394009</v>
+        <v>284.1370480222986</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.4557957397775</v>
+        <v>257.0194069479855</v>
       </c>
       <c r="AD3" t="n">
-        <v>149035.8205986896</v>
+        <v>207665.4629942937</v>
       </c>
       <c r="AE3" t="n">
-        <v>203917.3847394009</v>
+        <v>284137.0480222986</v>
       </c>
       <c r="AF3" t="n">
         <v>1.378656404994247e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>184455.7957397775</v>
+        <v>257019.4069479855</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.4917521891942</v>
+        <v>183.3670387332309</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.0175487025257</v>
+        <v>250.8908719775066</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.45517212466</v>
+        <v>226.9461992835967</v>
       </c>
       <c r="AD4" t="n">
-        <v>134491.7521891942</v>
+        <v>183367.0387332308</v>
       </c>
       <c r="AE4" t="n">
-        <v>184017.5487025257</v>
+        <v>250890.8719775066</v>
       </c>
       <c r="AF4" t="n">
         <v>1.50664176047529e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>166455.17212466</v>
+        <v>226946.1992835967</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.7662894539287</v>
+        <v>181.6415759979654</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.6566944660931</v>
+        <v>248.5300177410741</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.3196345030721</v>
+        <v>224.8106616620088</v>
       </c>
       <c r="AD5" t="n">
-        <v>132766.2894539287</v>
+        <v>181641.5759979654</v>
       </c>
       <c r="AE5" t="n">
-        <v>181656.6944660931</v>
+        <v>248530.0177410741</v>
       </c>
       <c r="AF5" t="n">
         <v>1.557548417020727e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.08101851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>164319.6345030721</v>
+        <v>224810.6616620088</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.8081504140866</v>
+        <v>170.7507567658277</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.6632851928136</v>
+        <v>233.6287183986361</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.7571751674476</v>
+        <v>211.3315214147034</v>
       </c>
       <c r="AD6" t="n">
-        <v>121808.1504140866</v>
+        <v>170750.7567658277</v>
       </c>
       <c r="AE6" t="n">
-        <v>166663.2851928136</v>
+        <v>233628.7183986361</v>
       </c>
       <c r="AF6" t="n">
         <v>1.585930844338148e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>150757.1751674476</v>
+        <v>211331.5214147034</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.3184156474272</v>
+        <v>169.2610219991683</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.6249643626118</v>
+        <v>231.5903975684342</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.9133888164783</v>
+        <v>209.4877350637341</v>
       </c>
       <c r="AD7" t="n">
-        <v>120318.4156474272</v>
+        <v>169261.0219991683</v>
       </c>
       <c r="AE7" t="n">
-        <v>164624.9643626118</v>
+        <v>231590.3975684342</v>
       </c>
       <c r="AF7" t="n">
         <v>1.620957987081053e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.687499999999998</v>
       </c>
       <c r="AH7" t="n">
-        <v>148913.3888164783</v>
+        <v>209487.7350637341</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.6940583242278</v>
+        <v>168.6366646759689</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.7706911283098</v>
+        <v>230.7361243341322</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.1406462206778</v>
+        <v>208.7149924679336</v>
       </c>
       <c r="AD8" t="n">
-        <v>119694.0583242278</v>
+        <v>168636.6646759689</v>
       </c>
       <c r="AE8" t="n">
-        <v>163770.6911283098</v>
+        <v>230736.1243341322</v>
       </c>
       <c r="AF8" t="n">
         <v>1.622029277935366e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.675925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>148140.6462206778</v>
+        <v>208714.9924679336</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.9953250761374</v>
+        <v>167.9379314278785</v>
       </c>
       <c r="AB9" t="n">
-        <v>162.8146534723376</v>
+        <v>229.7800866781601</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.275851456784</v>
+        <v>207.8501977040398</v>
       </c>
       <c r="AD9" t="n">
-        <v>118995.3250761374</v>
+        <v>167937.9314278785</v>
       </c>
       <c r="AE9" t="n">
-        <v>162814.6534723376</v>
+        <v>229780.0866781601</v>
       </c>
       <c r="AF9" t="n">
         <v>1.639020764523387e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.57175925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>147275.851456784</v>
+        <v>207850.1977040398</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.4165867005619</v>
+        <v>229.146265332537</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.8572951208256</v>
+        <v>313.5280294475846</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.7789848497179</v>
+        <v>283.6053543565531</v>
       </c>
       <c r="AD2" t="n">
-        <v>161416.5867005619</v>
+        <v>229146.265332537</v>
       </c>
       <c r="AE2" t="n">
-        <v>220857.2951208256</v>
+        <v>313528.0294475846</v>
       </c>
       <c r="AF2" t="n">
         <v>1.339931207567384e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>199778.9848497179</v>
+        <v>283605.3543565531</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.6627583161894</v>
+        <v>190.7118877980565</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.5150385959668</v>
+        <v>260.9404184998677</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.1914980703754</v>
+        <v>236.0366311904941</v>
       </c>
       <c r="AD3" t="n">
-        <v>132662.7583161894</v>
+        <v>190711.8877980565</v>
       </c>
       <c r="AE3" t="n">
-        <v>181515.0385959668</v>
+        <v>260940.4184998678</v>
       </c>
       <c r="AF3" t="n">
         <v>1.605484043200333e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.69444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>164191.4980703754</v>
+        <v>236036.6311904941</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.1540030280397</v>
+        <v>177.1689670911259</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.0317636465074</v>
+        <v>242.4103969171605</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.4722409406471</v>
+        <v>219.2750888605859</v>
       </c>
       <c r="AD4" t="n">
-        <v>119154.0030280397</v>
+        <v>177168.967091126</v>
       </c>
       <c r="AE4" t="n">
-        <v>163031.7636465074</v>
+        <v>242410.3969171605</v>
       </c>
       <c r="AF4" t="n">
         <v>1.730700581162364e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.918981481481483</v>
       </c>
       <c r="AH4" t="n">
-        <v>147472.2409406471</v>
+        <v>219275.0888605859</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>117.3411210015665</v>
+        <v>165.7438667521064</v>
       </c>
       <c r="AB5" t="n">
-        <v>160.5512984791776</v>
+        <v>226.7780705934682</v>
       </c>
       <c r="AC5" t="n">
-        <v>145.2285078875318</v>
+        <v>205.134689821114</v>
       </c>
       <c r="AD5" t="n">
-        <v>117341.1210015665</v>
+        <v>165743.8667521064</v>
       </c>
       <c r="AE5" t="n">
-        <v>160551.2984791776</v>
+        <v>226778.0705934682</v>
       </c>
       <c r="AF5" t="n">
         <v>1.787039862432873e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.606481481481483</v>
       </c>
       <c r="AH5" t="n">
-        <v>145228.5078875318</v>
+        <v>205134.689821114</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.9454324532456</v>
+        <v>164.2466929773003</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.6416558339328</v>
+        <v>224.7295713841342</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.5011188561483</v>
+        <v>203.2816965012314</v>
       </c>
       <c r="AD6" t="n">
-        <v>115945.4324532456</v>
+        <v>164246.6929773003</v>
       </c>
       <c r="AE6" t="n">
-        <v>158641.6558339328</v>
+        <v>224729.5713841342</v>
       </c>
       <c r="AF6" t="n">
         <v>1.826938816169086e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.398148148148147</v>
       </c>
       <c r="AH6" t="n">
-        <v>143501.1188561483</v>
+        <v>203281.6965012314</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.5578278758236</v>
+        <v>163.8590883998783</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.1113181511972</v>
+        <v>224.1992337013985</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.0213958575191</v>
+        <v>202.8019735026023</v>
       </c>
       <c r="AD7" t="n">
-        <v>115557.8278758236</v>
+        <v>163859.0883998783</v>
       </c>
       <c r="AE7" t="n">
-        <v>158111.3181511972</v>
+        <v>224199.2337013985</v>
       </c>
       <c r="AF7" t="n">
         <v>1.836494385602377e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH7" t="n">
-        <v>143021.3958575191</v>
+        <v>202801.9735026023</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2151584613671</v>
+        <v>166.2797180621639</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.801242156402</v>
+        <v>227.5112459959799</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4089832559088</v>
+        <v>205.7978919922283</v>
       </c>
       <c r="AD2" t="n">
-        <v>110215.1584613671</v>
+        <v>166279.7180621639</v>
       </c>
       <c r="AE2" t="n">
-        <v>150801.242156402</v>
+        <v>227511.2459959799</v>
       </c>
       <c r="AF2" t="n">
         <v>2.408268468981878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.953703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>136408.9832559088</v>
+        <v>205797.8919922283</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.3896595948192</v>
+        <v>144.7784321648012</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.9352699549806</v>
+        <v>198.0922380614358</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9119740154637</v>
+        <v>179.1865928851109</v>
       </c>
       <c r="AD3" t="n">
-        <v>107389.6595948192</v>
+        <v>144778.4321648012</v>
       </c>
       <c r="AE3" t="n">
-        <v>146935.2699549806</v>
+        <v>198092.2380614358</v>
       </c>
       <c r="AF3" t="n">
         <v>2.598721388503711e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.224537037037036</v>
       </c>
       <c r="AH3" t="n">
-        <v>132911.9740154637</v>
+        <v>179186.5928851108</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.690805264003</v>
+        <v>195.4847408083903</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.7628783686236</v>
+        <v>267.4708465520172</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.6521755910482</v>
+        <v>241.9438043548618</v>
       </c>
       <c r="AD2" t="n">
-        <v>138690.805264003</v>
+        <v>195484.7408083903</v>
       </c>
       <c r="AE2" t="n">
-        <v>189762.8783686236</v>
+        <v>267470.8465520173</v>
       </c>
       <c r="AF2" t="n">
         <v>1.829713033557111e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>171652.1755910482</v>
+        <v>241943.8043548618</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.113184003553</v>
+        <v>159.5260346459468</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.3982044381966</v>
+        <v>218.2705583944324</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.7580951023892</v>
+        <v>197.439122645983</v>
       </c>
       <c r="AD3" t="n">
-        <v>112113.184003553</v>
+        <v>159526.0346459468</v>
       </c>
       <c r="AE3" t="n">
-        <v>153398.2044381966</v>
+        <v>218270.5583944324</v>
       </c>
       <c r="AF3" t="n">
         <v>2.176023772494888e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.537037037037038</v>
       </c>
       <c r="AH3" t="n">
-        <v>138758.0951023892</v>
+        <v>197439.122645983</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.2634849543453</v>
+        <v>148.1606110793367</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.8673645961091</v>
+        <v>202.7198844635039</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.4687950627737</v>
+        <v>183.3725832095095</v>
       </c>
       <c r="AD4" t="n">
-        <v>110263.4849543453</v>
+        <v>148160.6110793367</v>
       </c>
       <c r="AE4" t="n">
-        <v>150867.3645961091</v>
+        <v>202719.884463504</v>
       </c>
       <c r="AF4" t="n">
         <v>2.262883936598449e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>136468.7950627737</v>
+        <v>183372.5832095096</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.5280368280245</v>
+        <v>151.6827675574245</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.3881155564532</v>
+        <v>207.5390543433984</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.6079164577773</v>
+        <v>187.7318182798158</v>
       </c>
       <c r="AD2" t="n">
-        <v>105528.0368280245</v>
+        <v>151682.7675574245</v>
       </c>
       <c r="AE2" t="n">
-        <v>144388.1155564532</v>
+        <v>207539.0543433984</v>
       </c>
       <c r="AF2" t="n">
         <v>2.893291505836038e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.49074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>130607.9164577773</v>
+        <v>187731.8182798158</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.1145229142557</v>
+        <v>151.2692536436557</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.8223275766887</v>
+        <v>206.9732663636339</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.0961264887129</v>
+        <v>187.2200283107514</v>
       </c>
       <c r="AD3" t="n">
-        <v>105114.5229142557</v>
+        <v>151269.2536436557</v>
       </c>
       <c r="AE3" t="n">
-        <v>143822.3275766887</v>
+        <v>206973.2663636339</v>
       </c>
       <c r="AF3" t="n">
         <v>2.944979452177959e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH3" t="n">
-        <v>130096.1264887129</v>
+        <v>187220.0283107514</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.2827675687741</v>
+        <v>242.1437832340754</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.4613714005443</v>
+        <v>331.311806850481</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.7029527967821</v>
+        <v>299.6918730038111</v>
       </c>
       <c r="AD2" t="n">
-        <v>174282.7675687741</v>
+        <v>242143.7832340754</v>
       </c>
       <c r="AE2" t="n">
-        <v>238461.3714005443</v>
+        <v>331311.806850481</v>
       </c>
       <c r="AF2" t="n">
         <v>1.267960730093711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21759259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>215702.9527967821</v>
+        <v>299691.8730038111</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.5687455943667</v>
+        <v>191.7881523685458</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.7546503593063</v>
+        <v>262.4130111666522</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.3128030268281</v>
+        <v>237.3686816799579</v>
       </c>
       <c r="AD3" t="n">
-        <v>133568.7455943667</v>
+        <v>191788.1523685458</v>
       </c>
       <c r="AE3" t="n">
-        <v>182754.6503593063</v>
+        <v>262413.0111666522</v>
       </c>
       <c r="AF3" t="n">
         <v>1.559995673170793e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.74074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>165312.8030268281</v>
+        <v>237368.6816799579</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.9125384919632</v>
+        <v>179.389862178392</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.1203106182126</v>
+        <v>245.4491235545326</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.0253195697954</v>
+        <v>222.0238036925677</v>
       </c>
       <c r="AD4" t="n">
-        <v>130912.5384919632</v>
+        <v>179389.862178392</v>
       </c>
       <c r="AE4" t="n">
-        <v>179120.3106182126</v>
+        <v>245449.1235545326</v>
       </c>
       <c r="AF4" t="n">
         <v>1.651910880600676e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>162025.3195697954</v>
+        <v>222023.8036925677</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.6716027581555</v>
+        <v>167.2162462522887</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.3717223152543</v>
+        <v>228.7926451824157</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.8751930276748</v>
+        <v>206.9569962387662</v>
       </c>
       <c r="AD5" t="n">
-        <v>118671.6027581555</v>
+        <v>167216.2462522887</v>
       </c>
       <c r="AE5" t="n">
-        <v>162371.7223152543</v>
+        <v>228792.6451824157</v>
       </c>
       <c r="AF5" t="n">
         <v>1.727276138110528e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.699074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>146875.1930276748</v>
+        <v>206956.9962387662</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.785072314996</v>
+        <v>166.3297158091292</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.1587322519613</v>
+        <v>227.5796551191226</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.7779690335798</v>
+        <v>205.8597722446711</v>
       </c>
       <c r="AD6" t="n">
-        <v>117785.072314996</v>
+        <v>166329.7158091292</v>
       </c>
       <c r="AE6" t="n">
-        <v>161158.7322519612</v>
+        <v>227579.6551191226</v>
       </c>
       <c r="AF6" t="n">
         <v>1.742580859952587e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>145777.9690335798</v>
+        <v>205859.7722446711</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.5263947888648</v>
+        <v>164.9695530565128</v>
       </c>
       <c r="AB7" t="n">
-        <v>159.436554131776</v>
+        <v>225.7186204348482</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.2201531760923</v>
+        <v>204.1763520986846</v>
       </c>
       <c r="AD7" t="n">
-        <v>116526.3947888648</v>
+        <v>164969.5530565128</v>
       </c>
       <c r="AE7" t="n">
-        <v>159436.554131776</v>
+        <v>225718.6204348482</v>
       </c>
       <c r="AF7" t="n">
         <v>1.777461725532075e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.432870370370372</v>
       </c>
       <c r="AH7" t="n">
-        <v>144220.1531760923</v>
+        <v>204176.3520986846</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.4470015602453</v>
+        <v>164.8901598278932</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.3279248137967</v>
+        <v>225.6099911168689</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.1218912877587</v>
+        <v>204.0780902103511</v>
       </c>
       <c r="AD8" t="n">
-        <v>116447.0015602453</v>
+        <v>164890.1598278932</v>
       </c>
       <c r="AE8" t="n">
-        <v>159327.9248137967</v>
+        <v>225609.9911168689</v>
       </c>
       <c r="AF8" t="n">
         <v>1.780618233915772e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.409722222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>144121.8912877587</v>
+        <v>204078.0902103511</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7547355789271</v>
+        <v>149.6008421680838</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9618065549097</v>
+        <v>204.690472177638</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4131709819943</v>
+        <v>185.1551007979445</v>
       </c>
       <c r="AD2" t="n">
-        <v>103754.7355789271</v>
+        <v>149600.8421680838</v>
       </c>
       <c r="AE2" t="n">
-        <v>141961.8065549097</v>
+        <v>204690.472177638</v>
       </c>
       <c r="AF2" t="n">
         <v>3.168570753130758e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>128413.1709819943</v>
+        <v>185155.1007979445</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.8082186773473</v>
+        <v>212.2715615712004</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.8154344508466</v>
+        <v>290.4393153019468</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.6000666717477</v>
+        <v>262.7201946837538</v>
       </c>
       <c r="AD2" t="n">
-        <v>154808.2186773473</v>
+        <v>212271.5615712004</v>
       </c>
       <c r="AE2" t="n">
-        <v>211815.4344508466</v>
+        <v>290439.3153019468</v>
       </c>
       <c r="AF2" t="n">
         <v>1.549326527640899e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>191600.0666717477</v>
+        <v>262720.1946837538</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.3993727264681</v>
+        <v>175.2742718367283</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.3134422279298</v>
+        <v>239.8179912820396</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.6772119521974</v>
+        <v>216.930098780816</v>
       </c>
       <c r="AD3" t="n">
-        <v>127399.3727264681</v>
+        <v>175274.2718367283</v>
       </c>
       <c r="AE3" t="n">
-        <v>174313.4422279297</v>
+        <v>239817.9912820396</v>
       </c>
       <c r="AF3" t="n">
         <v>1.83888543953713e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.15046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>157677.2119521974</v>
+        <v>216930.098780816</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0201427033362</v>
+        <v>162.9623616213008</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.3756335772046</v>
+        <v>222.972292562156</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.3559239867284</v>
+        <v>201.692129903666</v>
       </c>
       <c r="AD4" t="n">
-        <v>115020.1427033362</v>
+        <v>162962.3616213008</v>
       </c>
       <c r="AE4" t="n">
-        <v>157375.6335772046</v>
+        <v>222972.292562156</v>
       </c>
       <c r="AF4" t="n">
         <v>1.947193734826559e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.594907407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>142355.9239867284</v>
+        <v>201692.129903666</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.88826543598</v>
+        <v>151.208886181428</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.4587050482221</v>
+        <v>206.8906689385896</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.7173830226162</v>
+        <v>187.1453138680271</v>
       </c>
       <c r="AD5" t="n">
-        <v>112888.26543598</v>
+        <v>151208.886181428</v>
       </c>
       <c r="AE5" t="n">
-        <v>154458.7050482221</v>
+        <v>206890.6689385896</v>
       </c>
       <c r="AF5" t="n">
         <v>2.024427729992729e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.224537037037036</v>
       </c>
       <c r="AH5" t="n">
-        <v>139717.3830226162</v>
+        <v>187145.3138680271</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.0870119336113</v>
+        <v>160.9277456250907</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.7306387743579</v>
+        <v>220.18844119522</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.963363775591</v>
+        <v>199.1739654040296</v>
       </c>
       <c r="AD6" t="n">
-        <v>113087.0119336113</v>
+        <v>160927.7456250907</v>
       </c>
       <c r="AE6" t="n">
-        <v>154730.6387743579</v>
+        <v>220188.44119522</v>
       </c>
       <c r="AF6" t="n">
         <v>2.01382761826844e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>139963.363775591</v>
+        <v>199173.9654040296</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.6380783064464</v>
+        <v>216.4773010993209</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.0556173568596</v>
+        <v>296.1937936684513</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.3401338758553</v>
+        <v>267.925473711422</v>
       </c>
       <c r="AD2" t="n">
-        <v>158638.0783064464</v>
+        <v>216477.3010993209</v>
       </c>
       <c r="AE2" t="n">
-        <v>217055.6173568596</v>
+        <v>296193.7936684513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.415065194356495e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.4537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>196340.1338758553</v>
+        <v>267925.473711422</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.0910954592891</v>
+        <v>179.380713045219</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.3646201382853</v>
+        <v>245.4366053068941</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.246312532163</v>
+        <v>222.0124801689144</v>
       </c>
       <c r="AD3" t="n">
-        <v>131091.0954592891</v>
+        <v>179380.713045219</v>
       </c>
       <c r="AE3" t="n">
-        <v>179364.6201382853</v>
+        <v>245436.6053068941</v>
       </c>
       <c r="AF3" t="n">
         <v>1.671296192602777e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.54398148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>162246.312532163</v>
+        <v>222012.4801689144</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.9299157136394</v>
+        <v>166.1853678807885</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.3569133800248</v>
+        <v>227.3821519153859</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.95723603293</v>
+        <v>205.6811184695014</v>
       </c>
       <c r="AD4" t="n">
-        <v>117929.9157136394</v>
+        <v>166185.3678807885</v>
       </c>
       <c r="AE4" t="n">
-        <v>161356.9133800248</v>
+        <v>227382.1519153859</v>
       </c>
       <c r="AF4" t="n">
         <v>1.790205650808244e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.849537037037036</v>
       </c>
       <c r="AH4" t="n">
-        <v>145957.23603293</v>
+        <v>205681.1184695014</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.2125132143973</v>
+        <v>164.4679653815464</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.0070875141121</v>
+        <v>225.0323260494731</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.8316742496579</v>
+        <v>203.5555566862293</v>
       </c>
       <c r="AD5" t="n">
-        <v>116212.5132143973</v>
+        <v>164467.9653815464</v>
       </c>
       <c r="AE5" t="n">
-        <v>159007.0875141121</v>
+        <v>225032.3260494731</v>
       </c>
       <c r="AF5" t="n">
         <v>1.847711044530559e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.537037037037038</v>
       </c>
       <c r="AH5" t="n">
-        <v>143831.6742496579</v>
+        <v>203555.5566862293</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.8838358045119</v>
+        <v>163.0378027451758</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.1891324647975</v>
+        <v>223.0755144360692</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.1872222787334</v>
+        <v>201.7855004268058</v>
       </c>
       <c r="AD6" t="n">
-        <v>114883.835804512</v>
+        <v>163037.8027451758</v>
       </c>
       <c r="AE6" t="n">
-        <v>157189.1324647975</v>
+        <v>223075.5144360692</v>
       </c>
       <c r="AF6" t="n">
         <v>1.883956499260197e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH6" t="n">
-        <v>142187.2222787334</v>
+        <v>201785.5004268058</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.7970645475036</v>
+        <v>162.9510314881674</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.070408202881</v>
+        <v>222.9567901741528</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.0798288937436</v>
+        <v>201.678107041816</v>
       </c>
       <c r="AD7" t="n">
-        <v>114797.0645475036</v>
+        <v>162951.0314881674</v>
       </c>
       <c r="AE7" t="n">
-        <v>157070.408202881</v>
+        <v>222956.7901741528</v>
       </c>
       <c r="AF7" t="n">
         <v>1.888433878962093e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.328703703703704</v>
       </c>
       <c r="AH7" t="n">
-        <v>142079.8288937436</v>
+        <v>201678.1070418161</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.8447226639384</v>
+        <v>260.1172476936347</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.4904131405137</v>
+        <v>355.9038938574957</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.4386965180684</v>
+        <v>321.9369257419878</v>
       </c>
       <c r="AD2" t="n">
-        <v>191844.7226639384</v>
+        <v>260117.2476936347</v>
       </c>
       <c r="AE2" t="n">
-        <v>262490.4131405137</v>
+        <v>355903.8938574957</v>
       </c>
       <c r="AF2" t="n">
         <v>1.127369615273325e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.21296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>237438.6965180684</v>
+        <v>321936.9257419878</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.5009147964854</v>
+        <v>195.2819352914171</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.4490147886756</v>
+        <v>267.1933590965466</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.3184421492604</v>
+        <v>241.6927999126851</v>
       </c>
       <c r="AD3" t="n">
-        <v>146500.9147964854</v>
+        <v>195281.9352914171</v>
       </c>
       <c r="AE3" t="n">
-        <v>200449.0147886756</v>
+        <v>267193.3590965466</v>
       </c>
       <c r="AF3" t="n">
         <v>1.44927349078246e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>181318.4421492605</v>
+        <v>241692.7999126851</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.0020038373094</v>
+        <v>181.7488589134603</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.9792092844191</v>
+        <v>248.6768069590423</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.6113689597895</v>
+        <v>224.9434415230342</v>
       </c>
       <c r="AD4" t="n">
-        <v>133002.0038373094</v>
+        <v>181748.8589134603</v>
       </c>
       <c r="AE4" t="n">
-        <v>181979.209284419</v>
+        <v>248676.8069590423</v>
       </c>
       <c r="AF4" t="n">
         <v>1.560192717110482e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.2662037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>164611.3689597895</v>
+        <v>224943.4415230342</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.0428442030548</v>
+        <v>180.7896992792056</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.6668447576959</v>
+        <v>247.3644424323192</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.4242546615812</v>
+        <v>223.756327224826</v>
       </c>
       <c r="AD5" t="n">
-        <v>132042.8442030548</v>
+        <v>180789.6992792056</v>
       </c>
       <c r="AE5" t="n">
-        <v>180666.8447576959</v>
+        <v>247364.4424323192</v>
       </c>
       <c r="AF5" t="n">
         <v>1.588088653337513e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.09259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>163424.2546615812</v>
+        <v>223756.3272248259</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>120.5269504032423</v>
+        <v>169.3411252870976</v>
       </c>
       <c r="AB6" t="n">
-        <v>164.9102908154221</v>
+        <v>231.6999984208868</v>
       </c>
       <c r="AC6" t="n">
-        <v>149.1714841130907</v>
+        <v>209.5868757646544</v>
       </c>
       <c r="AD6" t="n">
-        <v>120526.9504032423</v>
+        <v>169341.1252870976</v>
       </c>
       <c r="AE6" t="n">
-        <v>164910.2908154221</v>
+        <v>231699.9984208868</v>
       </c>
       <c r="AF6" t="n">
         <v>1.632029944446492e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.814814814814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>149171.4841130906</v>
+        <v>209586.8757646544</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.372962421172</v>
+        <v>168.1871373050273</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.3313535479975</v>
+        <v>230.1210611534623</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.7432384024162</v>
+        <v>208.15863005398</v>
       </c>
       <c r="AD7" t="n">
-        <v>119372.962421172</v>
+        <v>168187.1373050273</v>
       </c>
       <c r="AE7" t="n">
-        <v>163331.3535479975</v>
+        <v>230121.0611534623</v>
       </c>
       <c r="AF7" t="n">
         <v>1.658195363537851e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.664351851851851</v>
       </c>
       <c r="AH7" t="n">
-        <v>147743.2384024162</v>
+        <v>208158.63005398</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.1201221634346</v>
+        <v>166.9342970472899</v>
       </c>
       <c r="AB8" t="n">
-        <v>161.6171622359508</v>
+        <v>228.4068698414155</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.192647103308</v>
+        <v>206.6080387548718</v>
       </c>
       <c r="AD8" t="n">
-        <v>118120.1221634346</v>
+        <v>166934.2970472899</v>
       </c>
       <c r="AE8" t="n">
-        <v>161617.1622359508</v>
+        <v>228406.8698414155</v>
       </c>
       <c r="AF8" t="n">
         <v>1.686714285933723e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH8" t="n">
-        <v>146192.647103308</v>
+        <v>206608.0387548718</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>118.1851561873726</v>
+        <v>166.9993310712279</v>
       </c>
       <c r="AB9" t="n">
-        <v>161.7061446566014</v>
+        <v>228.4958522620661</v>
       </c>
       <c r="AC9" t="n">
-        <v>146.2731371666194</v>
+        <v>206.6885288181832</v>
       </c>
       <c r="AD9" t="n">
-        <v>118185.1561873726</v>
+        <v>166999.3310712279</v>
       </c>
       <c r="AE9" t="n">
-        <v>161706.1446566014</v>
+        <v>228495.8522620661</v>
       </c>
       <c r="AF9" t="n">
         <v>1.687115765909198e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH9" t="n">
-        <v>146273.1371666194</v>
+        <v>206688.5288181832</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.0707543495788</v>
+        <v>199.1892062848144</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.3874738203359</v>
+        <v>272.5394596463406</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.835406143511</v>
+        <v>246.5286761293077</v>
       </c>
       <c r="AD2" t="n">
-        <v>142070.7543495788</v>
+        <v>199189.2062848144</v>
       </c>
       <c r="AE2" t="n">
-        <v>194387.4738203358</v>
+        <v>272539.4596463406</v>
       </c>
       <c r="AF2" t="n">
         <v>1.689684776848121e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>175835.406143511</v>
+        <v>246528.6761293077</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3213666891772</v>
+        <v>160.9200766352069</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.0512932899251</v>
+        <v>220.177948144929</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.253415474234</v>
+        <v>199.1644737957312</v>
       </c>
       <c r="AD3" t="n">
-        <v>113321.3666891772</v>
+        <v>160920.0766352069</v>
       </c>
       <c r="AE3" t="n">
-        <v>155051.2932899251</v>
+        <v>220177.948144929</v>
       </c>
       <c r="AF3" t="n">
         <v>2.085014026191686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>140253.415474234</v>
+        <v>199164.4737957312</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.326000057626</v>
+        <v>149.3718136255262</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.3211446352751</v>
+        <v>204.3771052216846</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.7838283753953</v>
+        <v>184.8716411444539</v>
       </c>
       <c r="AD4" t="n">
-        <v>111326.000057626</v>
+        <v>149371.8136255261</v>
       </c>
       <c r="AE4" t="n">
-        <v>152321.1446352752</v>
+        <v>204377.1052216846</v>
       </c>
       <c r="AF4" t="n">
         <v>2.171670280489863e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>137783.8283753953</v>
+        <v>184871.6411444539</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.1055011389369</v>
+        <v>149.1513147068371</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.0194482869991</v>
+        <v>204.0754088734086</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.5109255031651</v>
+        <v>184.5987382722238</v>
       </c>
       <c r="AD5" t="n">
-        <v>111105.5011389369</v>
+        <v>149151.3147068371</v>
       </c>
       <c r="AE5" t="n">
-        <v>152019.4482869991</v>
+        <v>204075.4088734086</v>
       </c>
       <c r="AF5" t="n">
         <v>2.180662096560237e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>137510.9255031651</v>
+        <v>184598.7382722238</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4988470806359</v>
+        <v>169.4361941161649</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.6083268433723</v>
+        <v>231.8300757869573</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.6120233692515</v>
+        <v>209.704538729472</v>
       </c>
       <c r="AD2" t="n">
-        <v>122498.8470806359</v>
+        <v>169436.1941161649</v>
       </c>
       <c r="AE2" t="n">
-        <v>167608.3268433723</v>
+        <v>231830.0757869573</v>
       </c>
       <c r="AF2" t="n">
         <v>2.194303236942101e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>151612.0233692515</v>
+        <v>209704.538729472</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.394859465902</v>
+        <v>145.9654385515651</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3106287648839</v>
+        <v>199.7163525668313</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.1560705108785</v>
+        <v>180.6557041815709</v>
       </c>
       <c r="AD3" t="n">
-        <v>108394.859465902</v>
+        <v>145965.4385515651</v>
       </c>
       <c r="AE3" t="n">
-        <v>148310.6287648838</v>
+        <v>199716.3525668313</v>
       </c>
       <c r="AF3" t="n">
         <v>2.474873405332399e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>134156.0705108785</v>
+        <v>180655.7041815709</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.501379064395</v>
+        <v>146.0719581500582</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.456373578855</v>
+        <v>199.8620973808025</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.2879056443583</v>
+        <v>180.7875393150508</v>
       </c>
       <c r="AD4" t="n">
-        <v>108501.379064395</v>
+        <v>146071.9581500581</v>
       </c>
       <c r="AE4" t="n">
-        <v>148456.373578855</v>
+        <v>199862.0973808024</v>
       </c>
       <c r="AF4" t="n">
         <v>2.46814223321532e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>134287.9056443583</v>
+        <v>180787.5393150508</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.5262467725272</v>
+        <v>154.0560838607881</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1221545573216</v>
+        <v>210.7863304129846</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.0810226136515</v>
+        <v>190.6691788789023</v>
       </c>
       <c r="AD2" t="n">
-        <v>107526.2467725272</v>
+        <v>154056.0838607881</v>
       </c>
       <c r="AE2" t="n">
-        <v>147122.1545573216</v>
+        <v>210786.3304129846</v>
       </c>
       <c r="AF2" t="n">
         <v>2.659936992370645e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.594907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>133081.0226136515</v>
+        <v>190669.1788789023</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.1932490398965</v>
+        <v>143.3839643215816</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.2982882518276</v>
+        <v>196.1842656387643</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.4312235485409</v>
+        <v>177.4607146726024</v>
       </c>
       <c r="AD3" t="n">
-        <v>106193.2490398965</v>
+        <v>143383.9643215816</v>
       </c>
       <c r="AE3" t="n">
-        <v>145298.2882518276</v>
+        <v>196184.2656387643</v>
       </c>
       <c r="AF3" t="n">
         <v>2.768148726640852e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH3" t="n">
-        <v>131431.2235485408</v>
+        <v>177460.7146726024</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3440246418221</v>
+        <v>147.9326019027662</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.0316096145894</v>
+        <v>202.4079122490654</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.6671893286092</v>
+        <v>183.0903851853612</v>
       </c>
       <c r="AD2" t="n">
-        <v>102344.0246418221</v>
+        <v>147932.6019027662</v>
       </c>
       <c r="AE2" t="n">
-        <v>140031.6096145894</v>
+        <v>202407.9122490654</v>
       </c>
       <c r="AF2" t="n">
         <v>3.448287599156201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.780092592592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>126667.1893286092</v>
+        <v>183090.3851853612</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.5532767080443</v>
+        <v>214.2085680536422</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.2030998349719</v>
+        <v>293.0896130259173</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.7598566227222</v>
+        <v>265.1175517126656</v>
       </c>
       <c r="AD2" t="n">
-        <v>156553.2767080443</v>
+        <v>214208.5680536422</v>
       </c>
       <c r="AE2" t="n">
-        <v>214203.0998349719</v>
+        <v>293089.6130259173</v>
       </c>
       <c r="AF2" t="n">
         <v>1.482887466271711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>193759.8566227222</v>
+        <v>265117.5517126656</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.1244847230778</v>
+        <v>177.1593408764587</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.6738165682599</v>
+        <v>242.3972259055741</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.8123154782934</v>
+        <v>219.2631748718597</v>
       </c>
       <c r="AD3" t="n">
-        <v>129124.4847230778</v>
+        <v>177159.3408764587</v>
       </c>
       <c r="AE3" t="n">
-        <v>176673.8165682599</v>
+        <v>242397.2259055741</v>
       </c>
       <c r="AF3" t="n">
         <v>1.754069264821785e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>159812.3154782934</v>
+        <v>219263.1748718597</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.0571313855473</v>
+        <v>164.1593073466327</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.7944872409171</v>
+        <v>224.6100065090728</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.6393642481502</v>
+        <v>203.1735427300356</v>
       </c>
       <c r="AD4" t="n">
-        <v>116057.1313855473</v>
+        <v>164159.3073466326</v>
       </c>
       <c r="AE4" t="n">
-        <v>158794.4872409171</v>
+        <v>224610.0065090728</v>
       </c>
       <c r="AF4" t="n">
         <v>1.881580142844262e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>143639.3642481502</v>
+        <v>203173.5427300356</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>114.3370185995432</v>
+        <v>162.3377093341433</v>
       </c>
       <c r="AB5" t="n">
-        <v>156.440953041087</v>
+        <v>222.1176157451535</v>
       </c>
       <c r="AC5" t="n">
-        <v>141.5104480491452</v>
+        <v>200.9190222425315</v>
       </c>
       <c r="AD5" t="n">
-        <v>114337.0185995432</v>
+        <v>162337.7093341433</v>
       </c>
       <c r="AE5" t="n">
-        <v>156440.953041087</v>
+        <v>222117.6157451535</v>
       </c>
       <c r="AF5" t="n">
         <v>1.94192975894381e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.328703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>141510.4480491452</v>
+        <v>200919.0222425315</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.922622580495</v>
+        <v>161.9233133150951</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.8739581259635</v>
+        <v>221.55062083003</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.9975663329385</v>
+        <v>200.4061405263249</v>
       </c>
       <c r="AD6" t="n">
-        <v>113922.622580495</v>
+        <v>161923.3133150951</v>
       </c>
       <c r="AE6" t="n">
-        <v>155873.9581259635</v>
+        <v>221550.62083003</v>
       </c>
       <c r="AF6" t="n">
         <v>1.948976289105927e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.293981481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>140997.5663329385</v>
+        <v>200406.1405263249</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.7040959520375</v>
+        <v>245.8583975027561</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.1425838328785</v>
+        <v>336.3943059701031</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.9373968846988</v>
+        <v>304.2893055407903</v>
       </c>
       <c r="AD2" t="n">
-        <v>177704.0959520375</v>
+        <v>245858.3975027561</v>
       </c>
       <c r="AE2" t="n">
-        <v>243142.5838328785</v>
+        <v>336394.3059701031</v>
       </c>
       <c r="AF2" t="n">
         <v>1.199414654007429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.65740740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>219937.3968846988</v>
+        <v>304289.3055407903</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>134.9872263874871</v>
+        <v>193.3710337264651</v>
       </c>
       <c r="AB3" t="n">
-        <v>184.6954783594086</v>
+        <v>264.5787792723534</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.0684011265705</v>
+        <v>239.3277519173263</v>
       </c>
       <c r="AD3" t="n">
-        <v>134987.2263874871</v>
+        <v>193371.0337264651</v>
       </c>
       <c r="AE3" t="n">
-        <v>184695.4783594086</v>
+        <v>264578.7792723533</v>
       </c>
       <c r="AF3" t="n">
         <v>1.505295953440383e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>167068.4011265705</v>
+        <v>239327.7519173262</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.5273371542678</v>
+        <v>181.1416613113624</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.3297493878658</v>
+        <v>247.8460124121848</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.0238926042404</v>
+        <v>224.1919368417011</v>
       </c>
       <c r="AD4" t="n">
-        <v>132527.3371542678</v>
+        <v>181141.6613113624</v>
       </c>
       <c r="AE4" t="n">
-        <v>181329.7493878658</v>
+        <v>247846.0124121848</v>
       </c>
       <c r="AF4" t="n">
         <v>1.588183022183016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>164023.8926042404</v>
+        <v>224191.936841701</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.4343598639201</v>
+        <v>169.116003828719</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.7836043547152</v>
+        <v>231.3919773098756</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.056888430388</v>
+        <v>209.3082517561677</v>
       </c>
       <c r="AD5" t="n">
-        <v>120434.3598639201</v>
+        <v>169116.0038287191</v>
       </c>
       <c r="AE5" t="n">
-        <v>164783.6043547152</v>
+        <v>231391.9773098756</v>
       </c>
       <c r="AF5" t="n">
         <v>1.656142494899108e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.884259259259258</v>
       </c>
       <c r="AH5" t="n">
-        <v>149056.888430388</v>
+        <v>209308.2517561677</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.6851591562968</v>
+        <v>167.3668031210958</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.3902707772573</v>
+        <v>228.9986437324177</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.8919712504972</v>
+        <v>207.1433345762768</v>
       </c>
       <c r="AD6" t="n">
-        <v>118685.1591562968</v>
+        <v>167366.8031210958</v>
       </c>
       <c r="AE6" t="n">
-        <v>162390.2707772573</v>
+        <v>228998.6437324177</v>
       </c>
       <c r="AF6" t="n">
         <v>1.704858810652075e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.606481481481483</v>
       </c>
       <c r="AH6" t="n">
-        <v>146891.9712504972</v>
+        <v>207143.3345762768</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.5819597746467</v>
+        <v>166.1621185129604</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.8808247135626</v>
+        <v>227.3503411046338</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.5265846006001</v>
+        <v>205.6523436378808</v>
       </c>
       <c r="AD7" t="n">
-        <v>117581.9597746467</v>
+        <v>166162.1185129604</v>
       </c>
       <c r="AE7" t="n">
-        <v>160880.8247135626</v>
+        <v>227350.3411046338</v>
       </c>
       <c r="AF7" t="n">
         <v>1.726408316574751e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.49074074074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>145526.5846006001</v>
+        <v>205652.3436378808</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>117.1204456281495</v>
+        <v>165.7006043664633</v>
       </c>
       <c r="AB8" t="n">
-        <v>160.2493606977583</v>
+        <v>226.7188770888295</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.9553866241987</v>
+        <v>205.0811456614794</v>
       </c>
       <c r="AD8" t="n">
-        <v>117120.4456281495</v>
+        <v>165700.6043664633</v>
       </c>
       <c r="AE8" t="n">
-        <v>160249.3606977583</v>
+        <v>226718.8770888295</v>
       </c>
       <c r="AF8" t="n">
         <v>1.736001596296073e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.432870370370372</v>
       </c>
       <c r="AH8" t="n">
-        <v>144955.3866241987</v>
+        <v>205081.1456614794</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.9437860411248</v>
+        <v>164.0876367687662</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4299384389205</v>
+        <v>224.5119436625533</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0731162440955</v>
+        <v>203.0848388639557</v>
       </c>
       <c r="AD2" t="n">
-        <v>109943.7860411248</v>
+        <v>164087.6367687662</v>
       </c>
       <c r="AE2" t="n">
-        <v>150429.9384389204</v>
+        <v>224511.9436625533</v>
       </c>
       <c r="AF2" t="n">
         <v>3.747483179738412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.60185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>136073.1162440955</v>
+        <v>203084.8388639557</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.3519625581629</v>
+        <v>181.9764443024685</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.5120853102941</v>
+        <v>248.988199328642</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.143212607051</v>
+        <v>225.2251150419214</v>
       </c>
       <c r="AD2" t="n">
-        <v>125351.9625581629</v>
+        <v>181976.4443024685</v>
       </c>
       <c r="AE2" t="n">
-        <v>171512.0853102941</v>
+        <v>248988.199328642</v>
       </c>
       <c r="AF2" t="n">
         <v>2.013985187770796e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>155143.212607051</v>
+        <v>225225.1150419214</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0301933741625</v>
+        <v>157.1442474502493</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.548164764005</v>
+        <v>215.0116920762455</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.1800592146457</v>
+        <v>194.4912779553553</v>
       </c>
       <c r="AD3" t="n">
-        <v>110030.1933741625</v>
+        <v>157144.2474502493</v>
       </c>
       <c r="AE3" t="n">
-        <v>150548.164764005</v>
+        <v>215011.6920762455</v>
       </c>
       <c r="AF3" t="n">
         <v>2.328808388048329e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>136180.0592146457</v>
+        <v>194491.2779553553</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.3839796973916</v>
+        <v>147.1232567505256</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.6639867025121</v>
+        <v>201.3005305059822</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.3802658663897</v>
+        <v>182.0886904016174</v>
       </c>
       <c r="AD4" t="n">
-        <v>109383.9796973916</v>
+        <v>147123.2567505256</v>
       </c>
       <c r="AE4" t="n">
-        <v>149663.9867025121</v>
+        <v>201300.5305059822</v>
       </c>
       <c r="AF4" t="n">
         <v>2.360715512608347e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>135380.2658663897</v>
+        <v>182088.6904016174</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.8108812360986</v>
+        <v>211.0732491231265</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.4508333643082</v>
+        <v>288.7997313446788</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.3657011976784</v>
+        <v>261.2370903181964</v>
       </c>
       <c r="AD2" t="n">
-        <v>153810.8812360986</v>
+        <v>211073.2491231265</v>
       </c>
       <c r="AE2" t="n">
-        <v>210450.8333643082</v>
+        <v>288799.7313446788</v>
       </c>
       <c r="AF2" t="n">
         <v>1.601448503068443e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.04861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>190365.7011976784</v>
+        <v>261237.0903181964</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>115.5973706913602</v>
+        <v>163.3721104369705</v>
       </c>
       <c r="AB3" t="n">
-        <v>158.1654223759203</v>
+        <v>223.532928968597</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.0703364509704</v>
+        <v>202.1992599583346</v>
       </c>
       <c r="AD3" t="n">
-        <v>115597.3706913602</v>
+        <v>163372.1104369705</v>
       </c>
       <c r="AE3" t="n">
-        <v>158165.4223759203</v>
+        <v>223532.928968597</v>
       </c>
       <c r="AF3" t="n">
         <v>1.952632387384217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.872685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>143070.3364509704</v>
+        <v>202199.2599583346</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.0379205732164</v>
+        <v>160.7111750923415</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.6634698093077</v>
+        <v>219.8921198378951</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.9026053222929</v>
+        <v>198.905924541158</v>
       </c>
       <c r="AD4" t="n">
-        <v>113037.9205732164</v>
+        <v>160711.1750923415</v>
       </c>
       <c r="AE4" t="n">
-        <v>154663.4698093077</v>
+        <v>219892.1198378951</v>
       </c>
       <c r="AF4" t="n">
         <v>2.059412284451618e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.363425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>139902.6053222929</v>
+        <v>198905.924541158</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.0544964900599</v>
+        <v>150.2411338976246</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.3179055931251</v>
+        <v>205.5665475696728</v>
       </c>
       <c r="AC5" t="n">
-        <v>138.6854598663911</v>
+        <v>185.9475647841433</v>
       </c>
       <c r="AD5" t="n">
-        <v>112054.4964900599</v>
+        <v>150241.1338976246</v>
       </c>
       <c r="AE5" t="n">
-        <v>153317.9055931251</v>
+        <v>205566.5475696728</v>
       </c>
       <c r="AF5" t="n">
         <v>2.096255348186953e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.201388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>138685.4598663911</v>
+        <v>185947.5647841433</v>
       </c>
     </row>
   </sheetData>
